--- a/restaurant_data.xlsx
+++ b/restaurant_data.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhiraagu-my.sharepoint.com/personal/maail_02624_dhiraagu_com_mv/Documents/personal/roadhaonline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{F8F3699D-6333-4299-8B41-2205923FDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94597098-56CA-4B98-956F-D69C5E61EFCF}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{F8F3699D-6333-4299-8B41-2205923FDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CCFAB1-AC0F-4A90-8C2A-4A7514B46372}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="2760" windowWidth="21600" windowHeight="11295" xr2:uid="{D14014FB-EFB2-4719-9A66-74152C34B487}"/>
+    <workbookView xWindow="28680" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{D14014FB-EFB2-4719-9A66-74152C34B487}"/>
   </bookViews>
   <sheets>
     <sheet name="restaurant_list" sheetId="1" r:id="rId1"/>
     <sheet name="mamak" sheetId="2" r:id="rId2"/>
     <sheet name="citron" sheetId="3" r:id="rId3"/>
-    <sheet name="pomelo" sheetId="4" r:id="rId4"/>
-    <sheet name="buruzu" sheetId="5" r:id="rId5"/>
-    <sheet name="house of flavors" sheetId="6" r:id="rId6"/>
-    <sheet name="Acha's Poppadums" sheetId="7" r:id="rId7"/>
+    <sheet name="house of flavors" sheetId="6" r:id="rId4"/>
+    <sheet name="Acha's Poppadums" sheetId="7" r:id="rId5"/>
+    <sheet name="ny steak shack" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="252">
   <si>
     <t>Nuts / Water</t>
   </si>
@@ -416,138 +415,15 @@
     <t>Cajun Chicken Fried Rice</t>
   </si>
   <si>
-    <t>Basbousa</t>
-  </si>
-  <si>
-    <t>Chocolate Flan</t>
-  </si>
-  <si>
-    <t>Brownie Trifle</t>
-  </si>
-  <si>
-    <t>Strawberry Panna Cotta</t>
-  </si>
-  <si>
-    <t>Cucumber &amp; Tomato</t>
-  </si>
-  <si>
-    <t>Freshly sliced</t>
-  </si>
-  <si>
-    <t>Hawaiian Salad</t>
-  </si>
-  <si>
-    <t>Brinjal Sambol</t>
-  </si>
-  <si>
-    <t>Caesar with Tandoori</t>
-  </si>
-  <si>
-    <t>Chicken Shawarma</t>
-  </si>
-  <si>
-    <t>Garlic Roast Potatoes</t>
-  </si>
-  <si>
-    <t>(Tzatziki Sauce)</t>
-  </si>
-  <si>
-    <t>Lamb Kofta Kebabs</t>
-  </si>
-  <si>
-    <t>Mixed Omelet</t>
-  </si>
-  <si>
-    <t>Grape packet juice</t>
-  </si>
-  <si>
-    <t>Fresh Mixed Fruit Juice</t>
-  </si>
-  <si>
-    <t>Faloodha</t>
-  </si>
-  <si>
-    <t>Pizza Pinwheels</t>
-  </si>
-  <si>
-    <t>Tuna Mousse Canape</t>
-  </si>
-  <si>
-    <t>Bruschetta Canape</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Fenfolhi</t>
-  </si>
-  <si>
     <t>main dishes</t>
   </si>
   <si>
-    <t>Maskurolhi</t>
-  </si>
-  <si>
-    <t>Normal Mashuni</t>
-  </si>
-  <si>
-    <t>Bashi Mashuni</t>
-  </si>
-  <si>
-    <t>Kulhi Boakiba</t>
-  </si>
-  <si>
-    <t>Tuna Rolls</t>
-  </si>
-  <si>
-    <t>Fihunu Patties</t>
-  </si>
-  <si>
-    <t>Papadam</t>
-  </si>
-  <si>
-    <t>Kirugarudhiya</t>
-  </si>
-  <si>
-    <t>Valhomas &amp; Potato</t>
-  </si>
-  <si>
-    <t>Eggplant Parmigiana</t>
-  </si>
-  <si>
-    <t>Steamed Vegetables</t>
-  </si>
-  <si>
-    <t>Roasted Zataar Potatoes</t>
-  </si>
-  <si>
-    <t>Lemon Butter Sauce</t>
-  </si>
-  <si>
-    <t>Grilled Fish Fillet with</t>
-  </si>
-  <si>
-    <t>Chicken Cacciatore</t>
-  </si>
-  <si>
-    <t>Spaghetti Bolognaise</t>
-  </si>
-  <si>
-    <t>Vegetable Pulao</t>
-  </si>
-  <si>
-    <t>Chicken Pad Thai</t>
-  </si>
-  <si>
     <t>Steamed Rice</t>
   </si>
   <si>
-    <t>MVR 249+ PER PERSON</t>
-  </si>
-  <si>
-    <t>Roasted Pumpkin Soup</t>
-  </si>
-  <si>
     <t>Caramel Pudding</t>
   </si>
   <si>
@@ -881,21 +757,9 @@
     <t>bombay dharbar</t>
   </si>
   <si>
-    <t>images/bombay_dharbar/bombay_logo.png</t>
-  </si>
-  <si>
-    <t>images/bombay_dharbar/bombay_banner.png</t>
-  </si>
-  <si>
     <t>the island kitchen</t>
   </si>
   <si>
-    <t>images/the_island_kitchen/logo.jpg</t>
-  </si>
-  <si>
-    <t>images/the_island_kitchen/banner.jpg</t>
-  </si>
-  <si>
     <t>citron</t>
   </si>
   <si>
@@ -905,24 +769,6 @@
     <t>images/citron/citron_banner.png</t>
   </si>
   <si>
-    <t>pomelo</t>
-  </si>
-  <si>
-    <t>images/pomelo/pomelo_logo.png</t>
-  </si>
-  <si>
-    <t>images/pomelo/pomelo_banner.png</t>
-  </si>
-  <si>
-    <t>buruzu</t>
-  </si>
-  <si>
-    <t>images/buruzu/buruzu_logo.png</t>
-  </si>
-  <si>
-    <t>images/buruzu/buruzu_banner.png</t>
-  </si>
-  <si>
     <t>house of flavors</t>
   </si>
   <si>
@@ -939,6 +785,18 @@
   </si>
   <si>
     <t>images/achaas/banner.png</t>
+  </si>
+  <si>
+    <t>images/bombay_dharbar/bombay_dharbar_logo.png</t>
+  </si>
+  <si>
+    <t>images/bombay_dharbar/bombay_dharbar_banner.png</t>
+  </si>
+  <si>
+    <t>images/the_island_kitchen/the_island_kitchen_logo.jpg</t>
+  </si>
+  <si>
+    <t>images/the_island_kitchen/the_island_kitchen_banner.jpg</t>
   </si>
 </sst>
 </file>
@@ -980,15 +838,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,137 +1181,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA06C4E-D4C8-4C24-9F63-95F191572C1F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="3" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>274</v>
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5272,2953 +5099,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FC97E2-0E04-43FA-B1D0-54C7C881FB42}">
-  <dimension ref="A1:D220"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>36</v>
-      </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
-        <v>80</v>
-      </c>
-      <c r="D95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>25</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>25</v>
-      </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>25</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>25</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>25</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>25</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>25</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>25</v>
-      </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>25</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>25</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>25</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>25</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>25</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>25</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>24</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s">
-        <v>80</v>
-      </c>
-      <c r="D130" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>24</v>
-      </c>
-      <c r="B131" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>24</v>
-      </c>
-      <c r="B135" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>24</v>
-      </c>
-      <c r="B137" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>24</v>
-      </c>
-      <c r="B140" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>24</v>
-      </c>
-      <c r="B141" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>24</v>
-      </c>
-      <c r="B142" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>24</v>
-      </c>
-      <c r="B144" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>24</v>
-      </c>
-      <c r="B146" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>24</v>
-      </c>
-      <c r="B147" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>24</v>
-      </c>
-      <c r="B148" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>24</v>
-      </c>
-      <c r="B149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>24</v>
-      </c>
-      <c r="B150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>24</v>
-      </c>
-      <c r="B151" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>24</v>
-      </c>
-      <c r="B152" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>24</v>
-      </c>
-      <c r="B153" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>24</v>
-      </c>
-      <c r="B154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>24</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>24</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>24</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>24</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>23</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" t="s">
-        <v>80</v>
-      </c>
-      <c r="D161" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>23</v>
-      </c>
-      <c r="B163" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>23</v>
-      </c>
-      <c r="B168" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>23</v>
-      </c>
-      <c r="B169" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>23</v>
-      </c>
-      <c r="B177" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>23</v>
-      </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>23</v>
-      </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>23</v>
-      </c>
-      <c r="B181" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>23</v>
-      </c>
-      <c r="B182" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>23</v>
-      </c>
-      <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>23</v>
-      </c>
-      <c r="B185" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>23</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>23</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1</v>
-      </c>
-      <c r="C188" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" t="s">
-        <v>80</v>
-      </c>
-      <c r="D191" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>2</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>2</v>
-      </c>
-      <c r="B193" t="s">
-        <v>4</v>
-      </c>
-      <c r="C193" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>2</v>
-      </c>
-      <c r="B194" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>2</v>
-      </c>
-      <c r="B195" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>2</v>
-      </c>
-      <c r="B196" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>2</v>
-      </c>
-      <c r="B198" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>2</v>
-      </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>2</v>
-      </c>
-      <c r="B201" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>2</v>
-      </c>
-      <c r="B202" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>2</v>
-      </c>
-      <c r="B203" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>2</v>
-      </c>
-      <c r="B204" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>2</v>
-      </c>
-      <c r="B205" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>2</v>
-      </c>
-      <c r="B206" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>2</v>
-      </c>
-      <c r="B208" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>2</v>
-      </c>
-      <c r="B209" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>2</v>
-      </c>
-      <c r="B210" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>2</v>
-      </c>
-      <c r="B211" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>2</v>
-      </c>
-      <c r="B213" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>2</v>
-      </c>
-      <c r="B214" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>2</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>2</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>2</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>2</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>2</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED86B8B9-B171-4EAE-AF93-901C126EE7DB}">
-  <dimension ref="A1:D49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ACDF15-8D27-4E0A-A148-197DCB9A4BBC}">
   <dimension ref="A1:D92"/>
   <sheetViews>
@@ -8256,10 +5136,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8270,7 +5150,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8281,7 +5161,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8292,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8300,10 +5180,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8311,10 +5191,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8322,10 +5202,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8333,10 +5213,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8344,10 +5224,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8355,10 +5235,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8369,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8380,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8391,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8401,11 +5281,11 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8415,8 +5295,8 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>175</v>
+      <c r="C16" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8426,7 +5306,7 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8437,8 +5317,8 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>191</v>
+      <c r="C18" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8446,9 +5326,9 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8457,10 +5337,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>185</v>
+        <v>125</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8468,10 +5348,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>196</v>
+        <v>125</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8479,10 +5359,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>165</v>
+        <v>125</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8490,10 +5370,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>182</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8501,10 +5381,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8514,8 +5394,8 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>181</v>
+      <c r="C25" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8525,8 +5405,8 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>168</v>
+      <c r="C26" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8536,8 +5416,8 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>144</v>
+      <c r="C27" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8547,11 +5427,11 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8561,8 +5441,8 @@
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>175</v>
+      <c r="C29" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8572,7 +5452,7 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8583,8 +5463,8 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>174</v>
+      <c r="C31" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8592,9 +5472,9 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8603,10 +5483,10 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>195</v>
+        <v>125</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8614,10 +5494,10 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>125</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8625,10 +5505,10 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>193</v>
+        <v>125</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8636,10 +5516,10 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>192</v>
+        <v>125</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8647,10 +5527,10 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8660,8 +5540,8 @@
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>177</v>
+      <c r="C38" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8671,7 +5551,7 @@
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8682,8 +5562,8 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>144</v>
+      <c r="C40" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8693,11 +5573,11 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8707,8 +5587,8 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>175</v>
+      <c r="C42" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8718,7 +5598,7 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8729,8 +5609,8 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>191</v>
+      <c r="C44" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8738,9 +5618,9 @@
         <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8749,10 +5629,10 @@
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>190</v>
+        <v>125</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8760,10 +5640,10 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>189</v>
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8771,10 +5651,10 @@
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>188</v>
+        <v>125</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8782,10 +5662,10 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8793,10 +5673,10 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8806,8 +5686,8 @@
       <c r="B51" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>186</v>
+      <c r="C51" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8817,8 +5697,8 @@
       <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>168</v>
+      <c r="C52" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8828,446 +5708,446 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>144</v>
+      <c r="C53" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>175</v>
+      <c r="C55" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>174</v>
+      <c r="C57" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>185</v>
+        <v>125</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>184</v>
+        <v>125</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>182</v>
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>181</v>
+      <c r="C64" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>168</v>
+      <c r="C65" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>144</v>
+      <c r="C66" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>175</v>
+      <c r="C68" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>180</v>
+      <c r="C70" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>173</v>
+        <v>125</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>179</v>
+        <v>125</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>178</v>
+        <v>125</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>177</v>
+      <c r="C77" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>168</v>
+      <c r="C78" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>144</v>
+      <c r="C79" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>175</v>
+      <c r="C81" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>174</v>
+      <c r="C83" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>125</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>172</v>
+        <v>125</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>171</v>
+        <v>125</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>168</v>
+      <c r="C91" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>144</v>
+      <c r="C92" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -9275,12 +6155,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A907F4E-741D-4896-A5D4-50E4A970A72D}">
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9307,35 +6187,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
@@ -9343,54 +6223,54 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>95</v>
@@ -9398,62 +6278,62 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -9464,145 +6344,145 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
         <v>223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
         <v>95</v>
@@ -9610,62 +6490,62 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -9676,112 +6556,112 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -9789,21 +6669,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
         <v>95</v>
@@ -9811,54 +6691,54 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
         <v>56</v>
@@ -9866,18 +6746,18 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -9888,134 +6768,134 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
         <v>95</v>
@@ -10023,62 +6903,62 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -10089,148 +6969,148 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
         <v>95</v>
@@ -10238,62 +7118,62 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -10304,145 +7184,145 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
         <v>95</v>
@@ -10450,62 +7330,62 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B105" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -10516,156 +7396,156 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D115" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C122" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C123" t="s">
         <v>95</v>
@@ -10673,62 +7553,62 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C125" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -10739,60 +7619,72 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C130" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C133" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C134" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FD1D32-DA8B-4619-A76E-9545BAC189FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/restaurant_data.xlsx
+++ b/restaurant_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhiraagu-my.sharepoint.com/personal/maail_02624_dhiraagu_com_mv/Documents/personal/roadhaonline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhiraagu-my.sharepoint.com/personal/maail_02624_dhiraagu_com_mv/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{F8F3699D-6333-4299-8B41-2205923FDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CCFAB1-AC0F-4A90-8C2A-4A7514B46372}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{F8F3699D-6333-4299-8B41-2205923FDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA6418C-6925-4C1B-B0DF-172C263A2F3B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{D14014FB-EFB2-4719-9A66-74152C34B487}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D14014FB-EFB2-4719-9A66-74152C34B487}"/>
   </bookViews>
   <sheets>
     <sheet name="restaurant_list" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="246">
   <si>
     <t>Nuts / Water</t>
   </si>
@@ -754,12 +754,6 @@
     <t>images/mamak/mamak_banner.png</t>
   </si>
   <si>
-    <t>bombay dharbar</t>
-  </si>
-  <si>
-    <t>the island kitchen</t>
-  </si>
-  <si>
     <t>citron</t>
   </si>
   <si>
@@ -772,31 +766,19 @@
     <t>house of flavors</t>
   </si>
   <si>
-    <t>images/house_of_flavors/logo.jpg</t>
-  </si>
-  <si>
-    <t>images/house_of_flavors/banner.jpg</t>
-  </si>
-  <si>
     <t>Acha's Poppadums</t>
   </si>
   <si>
-    <t>images/achaas/logo.png</t>
-  </si>
-  <si>
-    <t>images/achaas/banner.png</t>
-  </si>
-  <si>
-    <t>images/bombay_dharbar/bombay_dharbar_logo.png</t>
-  </si>
-  <si>
-    <t>images/bombay_dharbar/bombay_dharbar_banner.png</t>
-  </si>
-  <si>
-    <t>images/the_island_kitchen/the_island_kitchen_logo.jpg</t>
-  </si>
-  <si>
-    <t>images/the_island_kitchen/the_island_kitchen_banner.jpg</t>
+    <t>images/house_of_flavors/house_of_flavors_logo.png</t>
+  </si>
+  <si>
+    <t>images/house_of_flavors/house_of_flavors_banner.png</t>
+  </si>
+  <si>
+    <t>images/acha's_poppodums/acha's_poppodums_logo.png</t>
+  </si>
+  <si>
+    <t>images/acha's_poppodums/acha's_poppodums_banner.png</t>
   </si>
 </sst>
 </file>
@@ -858,10 +840,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA06C4E-D4C8-4C24-9F63-95F191572C1F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,63 +1206,41 @@
         <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
         <v>241</v>
-      </c>
-      <c r="D5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/restaurant_data.xlsx
+++ b/restaurant_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhiraagu-my.sharepoint.com/personal/maail_02624_dhiraagu_com_mv/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{F8F3699D-6333-4299-8B41-2205923FDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA6418C-6925-4C1B-B0DF-172C263A2F3B}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{F8F3699D-6333-4299-8B41-2205923FDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CF4E3C-740C-45DC-8E56-CECB930C843E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D14014FB-EFB2-4719-9A66-74152C34B487}"/>
   </bookViews>
@@ -733,9 +733,6 @@
     <t>Schezwan Chicken</t>
   </si>
   <si>
-    <t xml:space="preserve">restaurant_name  </t>
-  </si>
-  <si>
     <t>logo_path</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t>images/acha's_poppodums/acha's_poppodums_banner.png</t>
+  </si>
+  <si>
+    <t>restaurant_name</t>
   </si>
 </sst>
 </file>
@@ -840,6 +840,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1162,7 +1166,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,72 +1179,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
         <v>230</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>232</v>
-      </c>
-      <c r="D1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
         <v>234</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>235</v>
       </c>
-      <c r="C2" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
         <v>237</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>238</v>
       </c>
-      <c r="C3" t="s">
-        <v>239</v>
-      </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
         <v>242</v>
       </c>
-      <c r="C4" t="s">
-        <v>243</v>
-      </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
         <v>244</v>
       </c>
-      <c r="C5" t="s">
-        <v>245</v>
-      </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
